--- a/PiscesTestData/data/bulk-import-template.xlsx
+++ b/PiscesTestData/data/bulk-import-template.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="todo" sheetId="2" r:id="rId2"/>
+    <sheet name="klamath" sheetId="3" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="todo" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="218">
   <si>
     <t>FileName</t>
   </si>
@@ -106,6 +107,579 @@
   </si>
   <si>
     <t>sheet</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>siteid</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>properties</t>
+  </si>
+  <si>
+    <t>acho</t>
+  </si>
+  <si>
+    <t>qj</t>
+  </si>
+  <si>
+    <t>daily_acho_qj</t>
+  </si>
+  <si>
+    <t>DailyAverage(instant_%site%_qc)</t>
+  </si>
+  <si>
+    <t>addo</t>
+  </si>
+  <si>
+    <t>gj</t>
+  </si>
+  <si>
+    <t>daily_addo_gj</t>
+  </si>
+  <si>
+    <t>DailyAverage(instant_%site%_ch)</t>
+  </si>
+  <si>
+    <t>daily_addo_qj</t>
+  </si>
+  <si>
+    <t>advm index gage operated by USGS, flow values processed post decode</t>
+  </si>
+  <si>
+    <t>wi</t>
+  </si>
+  <si>
+    <t>daily_addo_wi</t>
+  </si>
+  <si>
+    <t>DailyMin(instant_%site%_wf)</t>
+  </si>
+  <si>
+    <t>wk</t>
+  </si>
+  <si>
+    <t>daily_addo_wk</t>
+  </si>
+  <si>
+    <t>DailyMax(instant_%site%_wf)</t>
+  </si>
+  <si>
+    <t>wz</t>
+  </si>
+  <si>
+    <t>daily_addo_wz</t>
+  </si>
+  <si>
+    <t>DailyAverage(instant_%site%_wf)</t>
+  </si>
+  <si>
+    <t>anno</t>
+  </si>
+  <si>
+    <t>gd</t>
+  </si>
+  <si>
+    <t>daily_anno_gd</t>
+  </si>
+  <si>
+    <t>decomissioned</t>
+  </si>
+  <si>
+    <t>hj</t>
+  </si>
+  <si>
+    <t>daily_anno_hj</t>
+  </si>
+  <si>
+    <t>qd</t>
+  </si>
+  <si>
+    <t>daily_anno_qd</t>
+  </si>
+  <si>
+    <t>wm</t>
+  </si>
+  <si>
+    <t>daily_anno_wm</t>
+  </si>
+  <si>
+    <t>wn</t>
+  </si>
+  <si>
+    <t>daily_anno_wn</t>
+  </si>
+  <si>
+    <t>wy</t>
+  </si>
+  <si>
+    <t>daily_anno_wy</t>
+  </si>
+  <si>
+    <t>chro</t>
+  </si>
+  <si>
+    <t>daily_chro_gd</t>
+  </si>
+  <si>
+    <t>DailyAverage(instant_%site%_gh)</t>
+  </si>
+  <si>
+    <t>daily_chro_hj</t>
+  </si>
+  <si>
+    <t>DailyAverage(instant_%site%_hj)</t>
+  </si>
+  <si>
+    <t>daily_chro_qd</t>
+  </si>
+  <si>
+    <t>DailyAverage(instant_%site%_q)</t>
+  </si>
+  <si>
+    <t>daily_chro_wm</t>
+  </si>
+  <si>
+    <t>water temp sensor removed</t>
+  </si>
+  <si>
+    <t>daily_chro_wn</t>
+  </si>
+  <si>
+    <t>daily_chro_wy</t>
+  </si>
+  <si>
+    <t>clk</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>daily_clk_af</t>
+  </si>
+  <si>
+    <t>DailyMidnight(instant_%site%_af)</t>
+  </si>
+  <si>
+    <t>fb</t>
+  </si>
+  <si>
+    <t>daily_clk_fb</t>
+  </si>
+  <si>
+    <t>DailyMidnight(instant_%site%_fb)</t>
+  </si>
+  <si>
+    <t>fd</t>
+  </si>
+  <si>
+    <t>daily_clk_fd</t>
+  </si>
+  <si>
+    <t>DailyAverage(instant_%site%_fb)</t>
+  </si>
+  <si>
+    <t>ger</t>
+  </si>
+  <si>
+    <t>daily_ger_af</t>
+  </si>
+  <si>
+    <t>daily_ger_fb</t>
+  </si>
+  <si>
+    <t>fb2</t>
+  </si>
+  <si>
+    <t>daily_ger_fb2</t>
+  </si>
+  <si>
+    <t>DailyMidnight(instant_%site%_fb2)</t>
+  </si>
+  <si>
+    <t>daily_ger_fd</t>
+  </si>
+  <si>
+    <t>daily_ger_gd</t>
+  </si>
+  <si>
+    <t>daily_ger_qd</t>
+  </si>
+  <si>
+    <t>no current q decode</t>
+  </si>
+  <si>
+    <t>hrpo</t>
+  </si>
+  <si>
+    <t>daily_hrpo_gd</t>
+  </si>
+  <si>
+    <t>daily_hrpo_hj</t>
+  </si>
+  <si>
+    <t>daily_hrpo_qd</t>
+  </si>
+  <si>
+    <t>kelo</t>
+  </si>
+  <si>
+    <t>daily_kelo_gd</t>
+  </si>
+  <si>
+    <t>daily_kelo_hj</t>
+  </si>
+  <si>
+    <t>daily_kelo_qd</t>
+  </si>
+  <si>
+    <t>lrd</t>
+  </si>
+  <si>
+    <t>daily_lrd_fb</t>
+  </si>
+  <si>
+    <t>daily_lrd_gd</t>
+  </si>
+  <si>
+    <t>daily_lrd_gj</t>
+  </si>
+  <si>
+    <t>daily_lrd_qd</t>
+  </si>
+  <si>
+    <t>daily_lrd_qj</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t>daily_lrd_rad</t>
+  </si>
+  <si>
+    <t>DailyMidnight(instant_%site%_ra)</t>
+  </si>
+  <si>
+    <t>rbd</t>
+  </si>
+  <si>
+    <t>daily_lrd_rbd</t>
+  </si>
+  <si>
+    <t>DailyMidnight(instant_%site%_rb)</t>
+  </si>
+  <si>
+    <t>rcd</t>
+  </si>
+  <si>
+    <t>daily_lrd_rcd</t>
+  </si>
+  <si>
+    <t>DailyMidnight(instant_%site%_rc)</t>
+  </si>
+  <si>
+    <t>lrs</t>
+  </si>
+  <si>
+    <t>daily_lrs_af</t>
+  </si>
+  <si>
+    <t>daily_lrs_fb</t>
+  </si>
+  <si>
+    <t>daily_lrs_fb2</t>
+  </si>
+  <si>
+    <t>daily_lrs_fd</t>
+  </si>
+  <si>
+    <t>daily_lrs_gd</t>
+  </si>
+  <si>
+    <t>no gh decode</t>
+  </si>
+  <si>
+    <t>lrsc</t>
+  </si>
+  <si>
+    <t>daily_lrsc_gd</t>
+  </si>
+  <si>
+    <t>daily_lrsc_hj</t>
+  </si>
+  <si>
+    <t>daily_lrsc_qd</t>
+  </si>
+  <si>
+    <t>lrvo</t>
+  </si>
+  <si>
+    <t>daily_lrvo_gj</t>
+  </si>
+  <si>
+    <t>daily_lrvo_qj</t>
+  </si>
+  <si>
+    <t>daily_lrvo_wi</t>
+  </si>
+  <si>
+    <t>daily_lrvo_wk</t>
+  </si>
+  <si>
+    <t>daily_lrvo_wz</t>
+  </si>
+  <si>
+    <t>mal</t>
+  </si>
+  <si>
+    <t>daily_mal_af</t>
+  </si>
+  <si>
+    <t>daily_mal_fb</t>
+  </si>
+  <si>
+    <t>daily_mal_fd</t>
+  </si>
+  <si>
+    <t>daily_mal_gd</t>
+  </si>
+  <si>
+    <t>daily_mal_hj</t>
+  </si>
+  <si>
+    <t>daily_mal_qd</t>
+  </si>
+  <si>
+    <t>mhpo</t>
+  </si>
+  <si>
+    <t>qp</t>
+  </si>
+  <si>
+    <t>daily_mhpo_qp</t>
+  </si>
+  <si>
+    <t>DailyAverage(instant_%site%_qp)</t>
+  </si>
+  <si>
+    <t>noco</t>
+  </si>
+  <si>
+    <t>daily_noco_gj</t>
+  </si>
+  <si>
+    <t>daily_noco_qj</t>
+  </si>
+  <si>
+    <t>daily_noco_wi</t>
+  </si>
+  <si>
+    <t>daily_noco_wk</t>
+  </si>
+  <si>
+    <t>daily_noco_wz</t>
+  </si>
+  <si>
+    <t>ordo</t>
+  </si>
+  <si>
+    <t>daily_ordo_gj</t>
+  </si>
+  <si>
+    <t>daily_ordo_qj</t>
+  </si>
+  <si>
+    <t>daily_ordo_wi</t>
+  </si>
+  <si>
+    <t>daily_ordo_wk</t>
+  </si>
+  <si>
+    <t>daily_ordo_wz</t>
+  </si>
+  <si>
+    <t>spbo</t>
+  </si>
+  <si>
+    <t>daily_spbo_gd</t>
+  </si>
+  <si>
+    <t>OWRD gage</t>
+  </si>
+  <si>
+    <t>daily_spbo_hj</t>
+  </si>
+  <si>
+    <t>daily_spbo_qd</t>
+  </si>
+  <si>
+    <t>daily_spbo_wm</t>
+  </si>
+  <si>
+    <t>daily_spbo_wn</t>
+  </si>
+  <si>
+    <t>daily_spbo_wy</t>
+  </si>
+  <si>
+    <t>stdo</t>
+  </si>
+  <si>
+    <t>daily_stdo_gj</t>
+  </si>
+  <si>
+    <t>daily_stdo_qj</t>
+  </si>
+  <si>
+    <t>daily_stdo_wi</t>
+  </si>
+  <si>
+    <t>daily_stdo_wk</t>
+  </si>
+  <si>
+    <t>daily_stdo_wz</t>
+  </si>
+  <si>
+    <t>svno</t>
+  </si>
+  <si>
+    <t>daily_svno_gd</t>
+  </si>
+  <si>
+    <t>daily_svno_hj</t>
+  </si>
+  <si>
+    <t>daily_svno_qd</t>
+  </si>
+  <si>
+    <t>daily_svno_wm</t>
+  </si>
+  <si>
+    <t>daily_svno_wn</t>
+  </si>
+  <si>
+    <t>daily_svno_wy</t>
+  </si>
+  <si>
+    <t>tulc</t>
+  </si>
+  <si>
+    <t>daily_tulc_fd</t>
+  </si>
+  <si>
+    <t>manual input</t>
+  </si>
+  <si>
+    <t>upfo</t>
+  </si>
+  <si>
+    <t>daily_upfo_gd</t>
+  </si>
+  <si>
+    <t>not KBAO gage, no decode</t>
+  </si>
+  <si>
+    <t>wilc</t>
+  </si>
+  <si>
+    <t>daily_wilc_gd</t>
+  </si>
+  <si>
+    <t>daily_wilc_hj</t>
+  </si>
+  <si>
+    <t>daily_wilc_qd</t>
+  </si>
+  <si>
+    <t>daily_wilc_wm</t>
+  </si>
+  <si>
+    <t>daily_wilc_wn</t>
+  </si>
+  <si>
+    <t>daily_wilc_wy</t>
+  </si>
+  <si>
+    <t>TableName</t>
+  </si>
+  <si>
+    <t>program:khydromet,basin:klamath</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/acho/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/addo/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/anno/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/chro/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/clk/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/ger/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/hrpo/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/kelo/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/lrd/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/lrs/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/lrsc/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/lrvo/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/mal/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/mhpo/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/noco/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/ordo/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/spbo/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/stdo/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/svno/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/tulc/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/upfo/daily</t>
+  </si>
+  <si>
+    <t>timeseries/hydromet/wilc/daily</t>
   </si>
 </sst>
 </file>
@@ -149,9 +723,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,13 +1007,2366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;"_"&amp;B2</f>
+        <v>acho_qj</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="0">A3&amp;"_"&amp;B3</f>
+        <v>addo_gj</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>addo_qj</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>addo_wi</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>addo_wk</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>addo_wz</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>anno_gd</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>198</v>
+      </c>
+      <c r="H8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>anno_hj</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>anno_qd</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>anno_wm</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>anno_wn</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>anno_wy</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>chro_gd</v>
+      </c>
+      <c r="D14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>chro_hj</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>chro_qd</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>199</v>
+      </c>
+      <c r="H16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>chro_wm</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>chro_wn</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>chro_wy</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" t="s">
+        <v>199</v>
+      </c>
+      <c r="H19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>clk_af</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s">
+        <v>200</v>
+      </c>
+      <c r="H20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>clk_fb</v>
+      </c>
+      <c r="D21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" t="s">
+        <v>200</v>
+      </c>
+      <c r="H21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>clk_fd</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s">
+        <v>200</v>
+      </c>
+      <c r="H22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>ger_af</v>
+      </c>
+      <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>ger_fb</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s">
+        <v>201</v>
+      </c>
+      <c r="H24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>ger_fb2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" t="s">
+        <v>201</v>
+      </c>
+      <c r="H25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>ger_fd</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s">
+        <v>201</v>
+      </c>
+      <c r="H26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>ger_gd</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" t="s">
+        <v>201</v>
+      </c>
+      <c r="H27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>ger_qd</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" t="s">
+        <v>201</v>
+      </c>
+      <c r="H28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>hrpo_gd</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>hrpo_hj</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" t="s">
+        <v>202</v>
+      </c>
+      <c r="H30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>hrpo_qd</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" t="s">
+        <v>202</v>
+      </c>
+      <c r="H31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>kelo_gd</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" t="s">
+        <v>203</v>
+      </c>
+      <c r="H32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>kelo_hj</v>
+      </c>
+      <c r="D33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>kelo_qd</v>
+      </c>
+      <c r="D34" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" t="s">
+        <v>203</v>
+      </c>
+      <c r="H34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>lrd_fb</v>
+      </c>
+      <c r="D35" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" t="s">
+        <v>204</v>
+      </c>
+      <c r="H35" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>lrd_gd</v>
+      </c>
+      <c r="D36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" t="s">
+        <v>204</v>
+      </c>
+      <c r="H36" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>lrd_gj</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" t="s">
+        <v>204</v>
+      </c>
+      <c r="H37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>lrd_qd</v>
+      </c>
+      <c r="D38" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" t="s">
+        <v>204</v>
+      </c>
+      <c r="H38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>lrd_qj</v>
+      </c>
+      <c r="D39" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
+        <v>204</v>
+      </c>
+      <c r="H39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>lrd_rad</v>
+      </c>
+      <c r="D40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" t="s">
+        <v>204</v>
+      </c>
+      <c r="H40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>lrd_rbd</v>
+      </c>
+      <c r="D41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" t="s">
+        <v>204</v>
+      </c>
+      <c r="H41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>lrd_rcd</v>
+      </c>
+      <c r="D42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" t="s">
+        <v>119</v>
+      </c>
+      <c r="G42" t="s">
+        <v>204</v>
+      </c>
+      <c r="H42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>lrs_af</v>
+      </c>
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" t="s">
+        <v>205</v>
+      </c>
+      <c r="H43" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>lrs_fb</v>
+      </c>
+      <c r="D44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" t="s">
+        <v>205</v>
+      </c>
+      <c r="H44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>lrs_fb2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" t="s">
+        <v>205</v>
+      </c>
+      <c r="H45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>lrs_fd</v>
+      </c>
+      <c r="D46" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" t="s">
+        <v>205</v>
+      </c>
+      <c r="H46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>lrs_gd</v>
+      </c>
+      <c r="D47" t="s">
+        <v>125</v>
+      </c>
+      <c r="F47" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" t="s">
+        <v>205</v>
+      </c>
+      <c r="H47" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>lrsc_gd</v>
+      </c>
+      <c r="D48" t="s">
+        <v>128</v>
+      </c>
+      <c r="E48" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" t="s">
+        <v>206</v>
+      </c>
+      <c r="H48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>lrsc_hj</v>
+      </c>
+      <c r="D49" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" t="s">
+        <v>206</v>
+      </c>
+      <c r="H49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>lrsc_qd</v>
+      </c>
+      <c r="D50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" t="s">
+        <v>206</v>
+      </c>
+      <c r="H50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>lrvo_gj</v>
+      </c>
+      <c r="D51" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" t="s">
+        <v>207</v>
+      </c>
+      <c r="H51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>lrvo_qj</v>
+      </c>
+      <c r="D52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" t="s">
+        <v>207</v>
+      </c>
+      <c r="H52" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>lrvo_wi</v>
+      </c>
+      <c r="D53" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G53" t="s">
+        <v>207</v>
+      </c>
+      <c r="H53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>131</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>lrvo_wk</v>
+      </c>
+      <c r="D54" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" t="s">
+        <v>207</v>
+      </c>
+      <c r="H54" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>lrvo_wz</v>
+      </c>
+      <c r="D55" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" t="s">
+        <v>207</v>
+      </c>
+      <c r="H55" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>mal_af</v>
+      </c>
+      <c r="D56" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" t="s">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s">
+        <v>208</v>
+      </c>
+      <c r="H56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>mal_fb</v>
+      </c>
+      <c r="D57" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" t="s">
+        <v>208</v>
+      </c>
+      <c r="H57" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>137</v>
+      </c>
+      <c r="B58" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>mal_fd</v>
+      </c>
+      <c r="D58" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" t="s">
+        <v>86</v>
+      </c>
+      <c r="G58" t="s">
+        <v>208</v>
+      </c>
+      <c r="H58" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>mal_gd</v>
+      </c>
+      <c r="D59" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" t="s">
+        <v>68</v>
+      </c>
+      <c r="G59" t="s">
+        <v>208</v>
+      </c>
+      <c r="H59" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>mal_hj</v>
+      </c>
+      <c r="D60" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" t="s">
+        <v>208</v>
+      </c>
+      <c r="H60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>mal_qd</v>
+      </c>
+      <c r="D61" t="s">
+        <v>143</v>
+      </c>
+      <c r="E61" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" t="s">
+        <v>208</v>
+      </c>
+      <c r="H61" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>144</v>
+      </c>
+      <c r="B62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>mhpo_qp</v>
+      </c>
+      <c r="D62" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" t="s">
+        <v>147</v>
+      </c>
+      <c r="G62" t="s">
+        <v>209</v>
+      </c>
+      <c r="H62" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>noco_gj</v>
+      </c>
+      <c r="D63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" t="s">
+        <v>40</v>
+      </c>
+      <c r="G63" t="s">
+        <v>210</v>
+      </c>
+      <c r="H63" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>noco_qj</v>
+      </c>
+      <c r="D64" t="s">
+        <v>150</v>
+      </c>
+      <c r="F64" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" t="s">
+        <v>210</v>
+      </c>
+      <c r="H64" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>noco_wi</v>
+      </c>
+      <c r="D65" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" t="s">
+        <v>45</v>
+      </c>
+      <c r="G65" t="s">
+        <v>210</v>
+      </c>
+      <c r="H65" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v>noco_wk</v>
+      </c>
+      <c r="D66" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" t="s">
+        <v>48</v>
+      </c>
+      <c r="G66" t="s">
+        <v>210</v>
+      </c>
+      <c r="H66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C97" si="1">A67&amp;"_"&amp;B67</f>
+        <v>noco_wz</v>
+      </c>
+      <c r="D67" t="s">
+        <v>153</v>
+      </c>
+      <c r="E67" t="s">
+        <v>51</v>
+      </c>
+      <c r="G67" t="s">
+        <v>210</v>
+      </c>
+      <c r="H67" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>ordo_gj</v>
+      </c>
+      <c r="D68" t="s">
+        <v>155</v>
+      </c>
+      <c r="E68" t="s">
+        <v>40</v>
+      </c>
+      <c r="G68" t="s">
+        <v>211</v>
+      </c>
+      <c r="H68" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>ordo_qj</v>
+      </c>
+      <c r="D69" t="s">
+        <v>156</v>
+      </c>
+      <c r="F69" t="s">
+        <v>42</v>
+      </c>
+      <c r="G69" t="s">
+        <v>211</v>
+      </c>
+      <c r="H69" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>ordo_wi</v>
+      </c>
+      <c r="D70" t="s">
+        <v>157</v>
+      </c>
+      <c r="E70" t="s">
+        <v>45</v>
+      </c>
+      <c r="G70" t="s">
+        <v>211</v>
+      </c>
+      <c r="H70" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" t="s">
+        <v>46</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>ordo_wk</v>
+      </c>
+      <c r="D71" t="s">
+        <v>158</v>
+      </c>
+      <c r="E71" t="s">
+        <v>48</v>
+      </c>
+      <c r="G71" t="s">
+        <v>211</v>
+      </c>
+      <c r="H71" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>ordo_wz</v>
+      </c>
+      <c r="D72" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" t="s">
+        <v>51</v>
+      </c>
+      <c r="G72" t="s">
+        <v>211</v>
+      </c>
+      <c r="H72" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>spbo_gd</v>
+      </c>
+      <c r="D73" t="s">
+        <v>161</v>
+      </c>
+      <c r="F73" t="s">
+        <v>162</v>
+      </c>
+      <c r="G73" t="s">
+        <v>212</v>
+      </c>
+      <c r="H73" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>160</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>spbo_hj</v>
+      </c>
+      <c r="D74" t="s">
+        <v>163</v>
+      </c>
+      <c r="F74" t="s">
+        <v>162</v>
+      </c>
+      <c r="G74" t="s">
+        <v>212</v>
+      </c>
+      <c r="H74" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>spbo_qd</v>
+      </c>
+      <c r="D75" t="s">
+        <v>164</v>
+      </c>
+      <c r="F75" t="s">
+        <v>162</v>
+      </c>
+      <c r="G75" t="s">
+        <v>212</v>
+      </c>
+      <c r="H75" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>spbo_wm</v>
+      </c>
+      <c r="D76" t="s">
+        <v>165</v>
+      </c>
+      <c r="F76" t="s">
+        <v>162</v>
+      </c>
+      <c r="G76" t="s">
+        <v>212</v>
+      </c>
+      <c r="H76" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>spbo_wn</v>
+      </c>
+      <c r="D77" t="s">
+        <v>166</v>
+      </c>
+      <c r="F77" t="s">
+        <v>162</v>
+      </c>
+      <c r="G77" t="s">
+        <v>212</v>
+      </c>
+      <c r="H77" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" t="s">
+        <v>64</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>spbo_wy</v>
+      </c>
+      <c r="D78" t="s">
+        <v>167</v>
+      </c>
+      <c r="F78" t="s">
+        <v>162</v>
+      </c>
+      <c r="G78" t="s">
+        <v>212</v>
+      </c>
+      <c r="H78" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>stdo_gj</v>
+      </c>
+      <c r="D79" t="s">
+        <v>169</v>
+      </c>
+      <c r="E79" t="s">
+        <v>40</v>
+      </c>
+      <c r="G79" t="s">
+        <v>213</v>
+      </c>
+      <c r="H79" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>stdo_qj</v>
+      </c>
+      <c r="D80" t="s">
+        <v>170</v>
+      </c>
+      <c r="F80" t="s">
+        <v>42</v>
+      </c>
+      <c r="G80" t="s">
+        <v>213</v>
+      </c>
+      <c r="H80" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>stdo_wi</v>
+      </c>
+      <c r="D81" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" t="s">
+        <v>45</v>
+      </c>
+      <c r="G81" t="s">
+        <v>213</v>
+      </c>
+      <c r="H81" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>stdo_wk</v>
+      </c>
+      <c r="D82" t="s">
+        <v>172</v>
+      </c>
+      <c r="E82" t="s">
+        <v>48</v>
+      </c>
+      <c r="G82" t="s">
+        <v>213</v>
+      </c>
+      <c r="H82" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>stdo_wz</v>
+      </c>
+      <c r="D83" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83" t="s">
+        <v>51</v>
+      </c>
+      <c r="G83" t="s">
+        <v>213</v>
+      </c>
+      <c r="H83" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>174</v>
+      </c>
+      <c r="B84" t="s">
+        <v>53</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>svno_gd</v>
+      </c>
+      <c r="D84" t="s">
+        <v>175</v>
+      </c>
+      <c r="F84" t="s">
+        <v>55</v>
+      </c>
+      <c r="G84" t="s">
+        <v>214</v>
+      </c>
+      <c r="H84" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>svno_hj</v>
+      </c>
+      <c r="D85" t="s">
+        <v>176</v>
+      </c>
+      <c r="F85" t="s">
+        <v>55</v>
+      </c>
+      <c r="G85" t="s">
+        <v>214</v>
+      </c>
+      <c r="H85" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" t="s">
+        <v>58</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>svno_qd</v>
+      </c>
+      <c r="D86" t="s">
+        <v>177</v>
+      </c>
+      <c r="F86" t="s">
+        <v>55</v>
+      </c>
+      <c r="G86" t="s">
+        <v>214</v>
+      </c>
+      <c r="H86" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>svno_wm</v>
+      </c>
+      <c r="D87" t="s">
+        <v>178</v>
+      </c>
+      <c r="F87" t="s">
+        <v>55</v>
+      </c>
+      <c r="G87" t="s">
+        <v>214</v>
+      </c>
+      <c r="H87" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="1"/>
+        <v>svno_wn</v>
+      </c>
+      <c r="D88" t="s">
+        <v>179</v>
+      </c>
+      <c r="F88" t="s">
+        <v>55</v>
+      </c>
+      <c r="G88" t="s">
+        <v>214</v>
+      </c>
+      <c r="H88" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B89" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="1"/>
+        <v>svno_wy</v>
+      </c>
+      <c r="D89" t="s">
+        <v>180</v>
+      </c>
+      <c r="F89" t="s">
+        <v>55</v>
+      </c>
+      <c r="G89" t="s">
+        <v>214</v>
+      </c>
+      <c r="H89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="1"/>
+        <v>tulc_fd</v>
+      </c>
+      <c r="D90" t="s">
+        <v>182</v>
+      </c>
+      <c r="F90" t="s">
+        <v>183</v>
+      </c>
+      <c r="G90" t="s">
+        <v>215</v>
+      </c>
+      <c r="H90" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="1"/>
+        <v>upfo_gd</v>
+      </c>
+      <c r="D91" t="s">
+        <v>185</v>
+      </c>
+      <c r="F91" t="s">
+        <v>186</v>
+      </c>
+      <c r="G91" t="s">
+        <v>216</v>
+      </c>
+      <c r="H91" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="1"/>
+        <v>wilc_gd</v>
+      </c>
+      <c r="D92" t="s">
+        <v>188</v>
+      </c>
+      <c r="E92" t="s">
+        <v>68</v>
+      </c>
+      <c r="G92" t="s">
+        <v>217</v>
+      </c>
+      <c r="H92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="1"/>
+        <v>wilc_hj</v>
+      </c>
+      <c r="D93" t="s">
+        <v>189</v>
+      </c>
+      <c r="E93" t="s">
+        <v>70</v>
+      </c>
+      <c r="G93" t="s">
+        <v>217</v>
+      </c>
+      <c r="H93" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" t="s">
+        <v>58</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="1"/>
+        <v>wilc_qd</v>
+      </c>
+      <c r="D94" t="s">
+        <v>190</v>
+      </c>
+      <c r="E94" t="s">
+        <v>72</v>
+      </c>
+      <c r="G94" t="s">
+        <v>217</v>
+      </c>
+      <c r="H94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>187</v>
+      </c>
+      <c r="B95" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="1"/>
+        <v>wilc_wm</v>
+      </c>
+      <c r="D95" t="s">
+        <v>191</v>
+      </c>
+      <c r="E95" t="s">
+        <v>48</v>
+      </c>
+      <c r="G95" t="s">
+        <v>217</v>
+      </c>
+      <c r="H95" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" t="s">
+        <v>62</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="1"/>
+        <v>wilc_wn</v>
+      </c>
+      <c r="D96" t="s">
+        <v>192</v>
+      </c>
+      <c r="E96" t="s">
+        <v>45</v>
+      </c>
+      <c r="G96" t="s">
+        <v>217</v>
+      </c>
+      <c r="H96" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>187</v>
+      </c>
+      <c r="B97" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="1"/>
+        <v>wilc_wy</v>
+      </c>
+      <c r="D97" t="s">
+        <v>193</v>
+      </c>
+      <c r="E97" t="s">
+        <v>51</v>
+      </c>
+      <c r="G97" t="s">
+        <v>217</v>
+      </c>
+      <c r="H97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,7 +3374,8 @@
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" customWidth="1"/>
   </cols>
@@ -459,7 +3388,7 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -526,7 +3455,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
